--- a/public/database/mission.xlsx
+++ b/public/database/mission.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4302720B-E816-4BD7-8A04-6E455466CF96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF8F8F0-FC43-46B4-8877-272C96389327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="930" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="1" r:id="rId1"/>
     <sheet name="ZH" sheetId="2" r:id="rId2"/>
+    <sheet name="EN" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>tagIndex</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,28 +45,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-11-11</t>
+    <t>コミックマーケット105</t>
+  </si>
+  <si>
+    <t>コミックマーケット104</t>
+  </si>
+  <si>
+    <t>2024-08-11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2024-22-22</t>
+    <t>ミッション画面をゲーム内仕様にリニューアル</t>
+  </si>
+  <si>
+    <t>ローディング画面のSDイラスト</t>
+  </si>
+  <si>
+    <t>Comic Market 105</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>excel测试title1 jp</t>
+    <t>Comic Market 104</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>excel测试title2 jp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>excel测试title1 ZH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>excel测试title2 ZH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>任务界面重做成游戏内的样式</t>
+  </si>
+  <si>
+    <t>動くLive2Dメモロビ</t>
+  </si>
+  <si>
+    <t>大厅Live2D动图</t>
+  </si>
+  <si>
+    <t>加载界面的Q版图</t>
+  </si>
+  <si>
+    <t>Renewal tasks page to in-game style</t>
+  </si>
+  <si>
+    <t>Live2D memorial lobby</t>
+  </si>
+  <si>
+    <t>SD picture on loading page</t>
   </si>
 </sst>
 </file>
@@ -88,12 +110,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,9 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -391,31 +420,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="A1:XFD1048576"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -424,27 +453,58 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>5</v>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -455,31 +515,31 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E31AE31C-89C8-41A9-900C-A2E47F7466A0}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="15.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+    <row r="1" spans="1:4" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
@@ -488,27 +548,153 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/public/database/mission.xlsx
+++ b/public/database/mission.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RUI\0_project\z_ALTea_HP\public\database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF8F8F0-FC43-46B4-8877-272C96389327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F66390A-57D6-4B43-80D5-987B8C866453}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JP" sheetId="1" r:id="rId1"/>
@@ -422,8 +422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -518,101 +518,6 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="52.5546875" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
-  <dimension ref="A1:D6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
@@ -669,6 +574,101 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3546799F-72C6-45E7-B9AE-E5D18315E0B6}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="52.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>15</v>
       </c>
       <c r="C4">
